--- a/data/trans_orig/P21D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F17438AF-EEC2-4252-9E84-12FF40E82BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4306A8E8-C96C-4516-BA91-BE98B00C53B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3B4F2E5-1D0D-46F6-8C33-F93B2CB48ED6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2449CBD4-71DD-45DC-B68A-C45B4D5993B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="230">
   <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
+    <t>Población que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,652 +74,652 @@
     <t>40,64%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>Sí lo pudo recibir</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>Sí lo pudo recibir</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF5992C-96CB-4FB0-801A-C6887F7E2575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11EE114-3A81-4209-9BCF-4DED88CC9EFE}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1859,10 +1859,10 @@
         <v>91</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1877,13 @@
         <v>5691</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1892,13 +1892,13 @@
         <v>7330</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -1907,10 +1907,10 @@
         <v>13020</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>101</v>
@@ -2167,7 +2167,7 @@
         <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>133</v>
@@ -2887,10 +2887,10 @@
         <v>215</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2905,13 @@
         <v>28668</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H36" s="7">
         <v>45</v>
@@ -2920,13 +2920,13 @@
         <v>35160</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>67</v>
@@ -2938,10 +2938,10 @@
         <v>159</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4306A8E8-C96C-4516-BA91-BE98B00C53B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC92E0D0-404F-4C6C-8A57-D20ADC0C853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2449CBD4-71DD-45DC-B68A-C45B4D5993B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90FD9A61-8E02-4877-A62C-AEC75A8F93FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11EE114-3A81-4209-9BCF-4DED88CC9EFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD600F4-6F63-4BD4-94B6-49D03FD75702}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC92E0D0-404F-4C6C-8A57-D20ADC0C853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA7A0D1-E4F9-4B64-8B5F-0C34555F5AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{90FD9A61-8E02-4877-A62C-AEC75A8F93FF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B44BEB3C-AA81-4482-A4C9-7B8AE4EC1C93}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>40,64%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>31,19%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
   </si>
   <si>
     <t>36,36%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>56,27%</t>
   </si>
   <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>66,32%</t>
   </si>
   <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -137,22 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,17%</t>
+    <t>11,62%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>7,93%</t>
+    <t>8,24%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -179,454 +179,454 @@
     <t>40,46%</t>
   </si>
   <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
   </si>
   <si>
     <t>26,45%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>32,69%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>71,09%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
   <si>
     <t>65,34%</t>
   </si>
   <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>2,77%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -641,76 +641,76 @@
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
   </si>
   <si>
     <t>78,74%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>78,15%</t>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>2,68%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -719,7 +719,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD600F4-6F63-4BD4-94B6-49D03FD75702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882B22BD-BA62-4FD3-8466-3D0843CBC9D1}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1859,10 +1859,10 @@
         <v>91</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1877,13 @@
         <v>5691</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1892,13 +1892,13 @@
         <v>7330</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -1907,10 +1907,10 @@
         <v>13020</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>101</v>
@@ -2167,7 +2167,7 @@
         <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>133</v>
@@ -2887,10 +2887,10 @@
         <v>215</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2905,13 @@
         <v>28668</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H36" s="7">
         <v>45</v>
@@ -2920,13 +2920,13 @@
         <v>35160</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>67</v>
@@ -2938,10 +2938,10 @@
         <v>159</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P21D1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBA7A0D1-E4F9-4B64-8B5F-0C34555F5AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADADC1D5-4A44-4772-B5F5-683B0978F4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B44BEB3C-AA81-4482-A4C9-7B8AE4EC1C93}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EDC1131E-3639-4525-A555-9426D22C3143}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="252">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -65,94 +65,94 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
   </si>
   <si>
-    <t>3,09%</t>
+    <t>2,91%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -173,556 +173,622 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,17%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1137,8 +1203,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882B22BD-BA62-4FD3-8466-3D0843CBC9D1}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1CBCC8-D1E6-4D3C-9D78-CFFC8F9522AA}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1258,7 +1324,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>77945</v>
+        <v>72618</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1273,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>49484</v>
+        <v>42638</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1288,7 +1354,7 @@
         <v>63</v>
       </c>
       <c r="N4" s="7">
-        <v>127430</v>
+        <v>115255</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1309,7 +1375,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>107907</v>
+        <v>125399</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1324,7 +1390,7 @@
         <v>65</v>
       </c>
       <c r="I5" s="7">
-        <v>105221</v>
+        <v>94386</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1339,7 +1405,7 @@
         <v>111</v>
       </c>
       <c r="N5" s="7">
-        <v>213129</v>
+        <v>219784</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1360,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>5923</v>
+        <v>5933</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1375,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>3948</v>
+        <v>3322</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1390,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>9871</v>
+        <v>9255</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1462,7 +1528,7 @@
         <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>44</v>
@@ -1477,7 +1543,7 @@
         <v>93</v>
       </c>
       <c r="I8" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1492,7 +1558,7 @@
         <v>178</v>
       </c>
       <c r="N8" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>44</v>
@@ -1515,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="7">
-        <v>83547</v>
+        <v>81765</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>46</v>
@@ -1530,7 +1596,7 @@
         <v>47</v>
       </c>
       <c r="I9" s="7">
-        <v>67923</v>
+        <v>116652</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>49</v>
@@ -1545,7 +1611,7 @@
         <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>151470</v>
+        <v>198417</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>52</v>
@@ -1566,7 +1632,7 @@
         <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>120158</v>
+        <v>120321</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>55</v>
@@ -1581,7 +1647,7 @@
         <v>176</v>
       </c>
       <c r="I10" s="7">
-        <v>182586</v>
+        <v>168652</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>58</v>
@@ -1596,7 +1662,7 @@
         <v>263</v>
       </c>
       <c r="N10" s="7">
-        <v>302744</v>
+        <v>288973</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>61</v>
@@ -1617,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2813</v>
+        <v>2636</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>64</v>
@@ -1632,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>6320</v>
+        <v>5815</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>66</v>
@@ -1647,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>9133</v>
+        <v>8451</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>69</v>
@@ -1719,7 +1785,7 @@
         <v>145</v>
       </c>
       <c r="D13" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -1734,7 +1800,7 @@
         <v>228</v>
       </c>
       <c r="I13" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>44</v>
@@ -1749,7 +1815,7 @@
         <v>373</v>
       </c>
       <c r="N13" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>44</v>
@@ -1772,7 +1838,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="7">
-        <v>60887</v>
+        <v>57719</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>76</v>
@@ -1787,7 +1853,7 @@
         <v>86</v>
       </c>
       <c r="I14" s="7">
-        <v>66804</v>
+        <v>60462</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -1802,7 +1868,7 @@
         <v>151</v>
       </c>
       <c r="N14" s="7">
-        <v>127691</v>
+        <v>118182</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -1823,7 +1889,7 @@
         <v>152</v>
       </c>
       <c r="D15" s="7">
-        <v>157197</v>
+        <v>152238</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>85</v>
@@ -1838,7 +1904,7 @@
         <v>299</v>
       </c>
       <c r="I15" s="7">
-        <v>202440</v>
+        <v>189936</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>88</v>
@@ -1853,7 +1919,7 @@
         <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>359637</v>
+        <v>342174</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>91</v>
@@ -1874,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>5691</v>
+        <v>5528</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>94</v>
@@ -1889,7 +1955,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>7330</v>
+        <v>6578</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>97</v>
@@ -1904,16 +1970,16 @@
         <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>13020</v>
+        <v>12106</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,37 +2000,37 @@
         <v>40</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,7 +2042,7 @@
         <v>222</v>
       </c>
       <c r="D18" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>44</v>
@@ -1991,7 +2057,7 @@
         <v>395</v>
       </c>
       <c r="I18" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>44</v>
@@ -2006,7 +2072,7 @@
         <v>617</v>
       </c>
       <c r="N18" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>44</v>
@@ -2020,7 +2086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,46 +2095,46 @@
         <v>75</v>
       </c>
       <c r="D19" s="7">
-        <v>74801</v>
+        <v>72027</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>103</v>
       </c>
       <c r="I19" s="7">
-        <v>69120</v>
+        <v>63059</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>178</v>
       </c>
       <c r="N19" s="7">
-        <v>143921</v>
+        <v>135085</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,46 +2146,46 @@
         <v>217</v>
       </c>
       <c r="D20" s="7">
-        <v>267211</v>
+        <v>449439</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>416</v>
       </c>
       <c r="I20" s="7">
-        <v>273807</v>
+        <v>252205</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>633</v>
       </c>
       <c r="N20" s="7">
-        <v>541018</v>
+        <v>701644</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2197,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>5428</v>
+        <v>5092</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>128</v>
@@ -2146,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>6169</v>
+        <v>5756</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>129</v>
@@ -2161,13 +2227,13 @@
         <v>14</v>
       </c>
       <c r="N21" s="7">
-        <v>11596</v>
+        <v>10848</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>133</v>
@@ -2233,7 +2299,7 @@
         <v>296</v>
       </c>
       <c r="D23" s="7">
-        <v>347440</v>
+        <v>526558</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>44</v>
@@ -2248,7 +2314,7 @@
         <v>529</v>
       </c>
       <c r="I23" s="7">
-        <v>349095</v>
+        <v>321020</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>44</v>
@@ -2263,7 +2329,7 @@
         <v>825</v>
       </c>
       <c r="N23" s="7">
-        <v>696535</v>
+        <v>847578</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>44</v>
@@ -2286,7 +2352,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="7">
-        <v>43257</v>
+        <v>39617</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>138</v>
@@ -2301,7 +2367,7 @@
         <v>54</v>
       </c>
       <c r="I24" s="7">
-        <v>31130</v>
+        <v>28723</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>141</v>
@@ -2316,7 +2382,7 @@
         <v>101</v>
       </c>
       <c r="N24" s="7">
-        <v>74387</v>
+        <v>68340</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>144</v>
@@ -2337,7 +2403,7 @@
         <v>225</v>
       </c>
       <c r="D25" s="7">
-        <v>206126</v>
+        <v>192798</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>147</v>
@@ -2352,7 +2418,7 @@
         <v>349</v>
       </c>
       <c r="I25" s="7">
-        <v>211328</v>
+        <v>193520</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>150</v>
@@ -2367,7 +2433,7 @@
         <v>574</v>
       </c>
       <c r="N25" s="7">
-        <v>417452</v>
+        <v>386318</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>153</v>
@@ -2388,46 +2454,46 @@
         <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>6188</v>
+        <v>6088</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>4950</v>
+        <v>4396</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
       </c>
       <c r="N26" s="7">
-        <v>11138</v>
+        <v>10485</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,37 +2514,37 @@
         <v>40</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
       </c>
       <c r="N27" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2556,7 @@
         <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>44</v>
@@ -2505,7 +2571,7 @@
         <v>411</v>
       </c>
       <c r="I28" s="7">
-        <v>248151</v>
+        <v>227326</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>44</v>
@@ -2520,7 +2586,7 @@
         <v>689</v>
       </c>
       <c r="N28" s="7">
-        <v>503721</v>
+        <v>465830</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>44</v>
@@ -2534,55 +2600,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D29" s="7">
-        <v>33489</v>
+        <v>21004</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="7">
+        <v>39</v>
+      </c>
+      <c r="I29" s="7">
+        <v>19519</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="7">
-        <v>61</v>
-      </c>
-      <c r="I29" s="7">
-        <v>37069</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>72</v>
+      </c>
+      <c r="N29" s="7">
+        <v>40523</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="M29" s="7">
-        <v>110</v>
-      </c>
-      <c r="N29" s="7">
-        <v>70557</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,49 +2657,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>382</v>
+        <v>206</v>
       </c>
       <c r="D30" s="7">
-        <v>257336</v>
+        <v>132886</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="7">
+        <v>328</v>
+      </c>
+      <c r="I30" s="7">
+        <v>162298</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H30" s="7">
-        <v>647</v>
-      </c>
-      <c r="I30" s="7">
-        <v>351094</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>534</v>
+      </c>
+      <c r="N30" s="7">
+        <v>295183</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1029</v>
-      </c>
-      <c r="N30" s="7">
-        <v>608429</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,46 +2711,46 @@
         <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>2627</v>
+        <v>2464</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4043</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H31" s="7">
-        <v>12</v>
-      </c>
-      <c r="I31" s="7">
-        <v>6443</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6506</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M31" s="7">
-        <v>15</v>
-      </c>
-      <c r="N31" s="7">
-        <v>9070</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,7 +2771,7 @@
         <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2720,7 +2786,7 @@
         <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2735,7 +2801,7 @@
         <v>40</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,10 +2810,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D33" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>44</v>
@@ -2759,10 +2825,10 @@
         <v>44</v>
       </c>
       <c r="H33" s="7">
-        <v>720</v>
+        <v>375</v>
       </c>
       <c r="I33" s="7">
-        <v>394606</v>
+        <v>185860</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>44</v>
@@ -2774,10 +2840,10 @@
         <v>44</v>
       </c>
       <c r="M33" s="7">
-        <v>1154</v>
+        <v>617</v>
       </c>
       <c r="N33" s="7">
-        <v>688057</v>
+        <v>342213</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>44</v>
@@ -2791,55 +2857,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="D34" s="7">
-        <v>373927</v>
+        <v>10394</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>22</v>
+      </c>
+      <c r="I34" s="7">
+        <v>13071</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H34" s="7">
-        <v>377</v>
-      </c>
-      <c r="I34" s="7">
-        <v>321529</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>38</v>
+      </c>
+      <c r="N34" s="7">
+        <v>23465</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M34" s="7">
-        <v>706</v>
-      </c>
-      <c r="N34" s="7">
-        <v>695456</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,49 +2914,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>1109</v>
+        <v>176</v>
       </c>
       <c r="D35" s="7">
-        <v>1115935</v>
+        <v>107812</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>319</v>
+      </c>
+      <c r="I35" s="7">
+        <v>155608</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H35" s="7">
-        <v>1952</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1326475</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>495</v>
+      </c>
+      <c r="N35" s="7">
+        <v>263420</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="M35" s="7">
-        <v>3061</v>
-      </c>
-      <c r="N35" s="7">
-        <v>2442410</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,49 +2965,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>28668</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="7">
+        <v>4</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1936</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M36" s="7">
+        <v>4</v>
+      </c>
+      <c r="N36" s="7">
+        <v>1936</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H36" s="7">
-        <v>45</v>
-      </c>
-      <c r="I36" s="7">
-        <v>35160</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M36" s="7">
-        <v>67</v>
-      </c>
-      <c r="N36" s="7">
-        <v>63828</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,37 +3028,37 @@
         <v>40</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="H37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>1523</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1523</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="P37" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,63 +3067,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>192</v>
+      </c>
+      <c r="D38" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="7">
+        <v>345</v>
+      </c>
+      <c r="I38" s="7">
+        <v>170615</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="7">
+        <v>537</v>
+      </c>
+      <c r="N38" s="7">
+        <v>288822</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>329</v>
+      </c>
+      <c r="D39" s="7">
+        <v>355145</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H39" s="7">
+        <v>377</v>
+      </c>
+      <c r="I39" s="7">
+        <v>344124</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M39" s="7">
+        <v>706</v>
+      </c>
+      <c r="N39" s="7">
+        <v>699268</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1109</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1280892</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1952</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1216604</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M40" s="7">
+        <v>3061</v>
+      </c>
+      <c r="N40" s="7">
+        <v>2497496</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>22</v>
+      </c>
+      <c r="D41" s="7">
+        <v>27741</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H41" s="7">
+        <v>45</v>
+      </c>
+      <c r="I41" s="7">
+        <v>31847</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M41" s="7">
+        <v>67</v>
+      </c>
+      <c r="N41" s="7">
+        <v>59588</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1400</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1400</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1460</v>
       </c>
-      <c r="D38" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1663778</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="7">
         <v>2376</v>
       </c>
-      <c r="I38" s="7">
-        <v>1684687</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1593974</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="7">
         <v>3836</v>
       </c>
-      <c r="N38" s="7">
-        <v>3203218</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>229</v>
+      <c r="N43" s="7">
+        <v>3257752</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
